--- a/data/pca/factorExposure/factorExposure_2016-06-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-06-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.00893717681419195</v>
+        <v>0.01202733735775913</v>
       </c>
       <c r="C2">
-        <v>-0.05112375953066581</v>
+        <v>0.04035194507531147</v>
       </c>
       <c r="D2">
-        <v>0.04098809578369627</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06353457830494443</v>
+      </c>
+      <c r="E2">
+        <v>-0.07724805849198955</v>
+      </c>
+      <c r="F2">
+        <v>-0.05989413564107569</v>
+      </c>
+      <c r="G2">
+        <v>0.0436269099877705</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.03731771251260133</v>
+        <v>0.02396327282573652</v>
       </c>
       <c r="C3">
-        <v>-0.1115743090904018</v>
+        <v>0.07147158546278468</v>
       </c>
       <c r="D3">
-        <v>0.08978678729757199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.07926436804205239</v>
+      </c>
+      <c r="E3">
+        <v>-0.06431425390658578</v>
+      </c>
+      <c r="F3">
+        <v>0.025112478157449</v>
+      </c>
+      <c r="G3">
+        <v>-0.03589447703567239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.05817865400988999</v>
+        <v>0.05599616232605741</v>
       </c>
       <c r="C4">
-        <v>-0.05974001201733292</v>
+        <v>0.06331297084207924</v>
       </c>
       <c r="D4">
-        <v>0.03481207275594886</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06026780281648327</v>
+      </c>
+      <c r="E4">
+        <v>-0.07988686424311031</v>
+      </c>
+      <c r="F4">
+        <v>-0.07399809686779804</v>
+      </c>
+      <c r="G4">
+        <v>-0.03553969420827519</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.03791247002019531</v>
+        <v>0.03451592195305177</v>
       </c>
       <c r="C6">
-        <v>-0.03817372312655068</v>
+        <v>0.03008532712004256</v>
       </c>
       <c r="D6">
-        <v>0.02993257007565052</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06199345052459465</v>
+      </c>
+      <c r="E6">
+        <v>-0.08055948692927607</v>
+      </c>
+      <c r="F6">
+        <v>-0.04957590149339658</v>
+      </c>
+      <c r="G6">
+        <v>-0.0215833920415987</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01975375911081223</v>
+        <v>0.01719910522941167</v>
       </c>
       <c r="C7">
-        <v>-0.04448428860446377</v>
+        <v>0.0377813243494507</v>
       </c>
       <c r="D7">
-        <v>-0.003714243055494892</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03895147426740101</v>
+      </c>
+      <c r="E7">
+        <v>-0.05669373825970432</v>
+      </c>
+      <c r="F7">
+        <v>-0.09357078107311265</v>
+      </c>
+      <c r="G7">
+        <v>-0.008992409781890771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.003590598551421567</v>
+        <v>0.002588969880280389</v>
       </c>
       <c r="C8">
-        <v>-0.03293950404096958</v>
+        <v>0.03078387391360867</v>
       </c>
       <c r="D8">
-        <v>0.0247222195994324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03417739248093435</v>
+      </c>
+      <c r="E8">
+        <v>-0.05488137666943507</v>
+      </c>
+      <c r="F8">
+        <v>-0.03118792211302157</v>
+      </c>
+      <c r="G8">
+        <v>-0.006053257860325329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.03161185718341217</v>
+        <v>0.03570900141015071</v>
       </c>
       <c r="C9">
-        <v>-0.04666933256077805</v>
+        <v>0.05074719369680851</v>
       </c>
       <c r="D9">
-        <v>0.01815021965045577</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.044073687848531</v>
+      </c>
+      <c r="E9">
+        <v>-0.06731901301841972</v>
+      </c>
+      <c r="F9">
+        <v>-0.0795388955518022</v>
+      </c>
+      <c r="G9">
+        <v>-0.0215352465112832</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.0839601022176984</v>
+        <v>0.1041196434166695</v>
       </c>
       <c r="C10">
-        <v>0.1880584742313141</v>
+        <v>-0.1931922082920861</v>
       </c>
       <c r="D10">
-        <v>-0.0100036489893619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.00842106053180018</v>
+      </c>
+      <c r="E10">
+        <v>-0.04403691337592563</v>
+      </c>
+      <c r="F10">
+        <v>-0.03364852570288895</v>
+      </c>
+      <c r="G10">
+        <v>-0.01204477412165062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.038398498380913</v>
+        <v>0.03486871219755403</v>
       </c>
       <c r="C11">
-        <v>-0.05330032520600844</v>
+        <v>0.04910543087534493</v>
       </c>
       <c r="D11">
-        <v>0.01671967148818784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03415820741154318</v>
+      </c>
+      <c r="E11">
+        <v>-0.02189059877508851</v>
+      </c>
+      <c r="F11">
+        <v>-0.06358591155829542</v>
+      </c>
+      <c r="G11">
+        <v>-0.01692200281505117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.03987653059981711</v>
+        <v>0.0370643897945237</v>
       </c>
       <c r="C12">
-        <v>-0.04834773594787938</v>
+        <v>0.04639480041756629</v>
       </c>
       <c r="D12">
-        <v>0.00558558427404107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.0278653751083315</v>
+      </c>
+      <c r="E12">
+        <v>-0.0303252002350558</v>
+      </c>
+      <c r="F12">
+        <v>-0.06429258465336478</v>
+      </c>
+      <c r="G12">
+        <v>-0.01334012921003938</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01036149589459116</v>
+        <v>0.009917288921408684</v>
       </c>
       <c r="C13">
-        <v>-0.05008521141715964</v>
+        <v>0.04118715503093538</v>
       </c>
       <c r="D13">
-        <v>0.01350173906552408</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05142090262854677</v>
+      </c>
+      <c r="E13">
+        <v>-0.09134259616226124</v>
+      </c>
+      <c r="F13">
+        <v>-0.08653106720093832</v>
+      </c>
+      <c r="G13">
+        <v>-0.01924358365353379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.005483699305597566</v>
+        <v>0.003827306031137618</v>
       </c>
       <c r="C14">
-        <v>-0.04017551882018177</v>
+        <v>0.03343142418662537</v>
       </c>
       <c r="D14">
-        <v>-0.01033254586904093</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02595887069817611</v>
+      </c>
+      <c r="E14">
+        <v>-0.0451430565660231</v>
+      </c>
+      <c r="F14">
+        <v>-0.0880429852388504</v>
+      </c>
+      <c r="G14">
+        <v>0.004793790714890888</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.000271761929165141</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.004891461598343931</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007411619253979326</v>
+      </c>
+      <c r="E15">
+        <v>-0.003340992455729124</v>
+      </c>
+      <c r="F15">
+        <v>-0.005799988133326897</v>
+      </c>
+      <c r="G15">
+        <v>-7.923948170305183e-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.03531046732891632</v>
+        <v>0.03310856866322237</v>
       </c>
       <c r="C16">
-        <v>-0.04784870457871036</v>
+        <v>0.04494601010415313</v>
       </c>
       <c r="D16">
-        <v>0.01099470397112197</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02829728858252238</v>
+      </c>
+      <c r="E16">
+        <v>-0.03588872774084343</v>
+      </c>
+      <c r="F16">
+        <v>-0.06403058189072276</v>
+      </c>
+      <c r="G16">
+        <v>-0.002165220514542042</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01810339883671147</v>
+        <v>0.0144563491880112</v>
       </c>
       <c r="C19">
-        <v>-0.06456685918180043</v>
+        <v>0.04771770740713609</v>
       </c>
       <c r="D19">
-        <v>0.08330396886742339</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.08964062768714472</v>
+      </c>
+      <c r="E19">
+        <v>-0.1033812398890369</v>
+      </c>
+      <c r="F19">
+        <v>-0.06189420016803523</v>
+      </c>
+      <c r="G19">
+        <v>0.02814047894610938</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01356979236680673</v>
+        <v>0.01176966071119638</v>
       </c>
       <c r="C20">
-        <v>-0.04684577786639273</v>
+        <v>0.03869767192380986</v>
       </c>
       <c r="D20">
-        <v>0.0120443589344453</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03636793194862891</v>
+      </c>
+      <c r="E20">
+        <v>-0.07339986701633301</v>
+      </c>
+      <c r="F20">
+        <v>-0.06891449660171442</v>
+      </c>
+      <c r="G20">
+        <v>-0.005956026631832711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.007755030084187687</v>
+        <v>0.007904712851236959</v>
       </c>
       <c r="C21">
-        <v>-0.04848994691362779</v>
+        <v>0.04185877868101315</v>
       </c>
       <c r="D21">
-        <v>0.03652875939744048</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06551650668500243</v>
+      </c>
+      <c r="E21">
+        <v>-0.1141415887187426</v>
+      </c>
+      <c r="F21">
+        <v>-0.1081648664008881</v>
+      </c>
+      <c r="G21">
+        <v>-0.005335342607416475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>-0.0008020545675013111</v>
+        <v>0.002424616244803379</v>
       </c>
       <c r="C22">
-        <v>-0.0006533147907389228</v>
+        <v>0.0248499283625602</v>
       </c>
       <c r="D22">
-        <v>0.001560275130846429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.04282802127973778</v>
+      </c>
+      <c r="E22">
+        <v>-0.03624847932177932</v>
+      </c>
+      <c r="F22">
+        <v>-0.009339843519663316</v>
+      </c>
+      <c r="G22">
+        <v>-0.03760412023142461</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>-0.0008076671993848598</v>
+        <v>0.002495979553123622</v>
       </c>
       <c r="C23">
-        <v>-0.0006531991133878394</v>
+        <v>0.02500614082101345</v>
       </c>
       <c r="D23">
-        <v>0.00156739858407922</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.04249314428060375</v>
+      </c>
+      <c r="E23">
+        <v>-0.03652497954952619</v>
+      </c>
+      <c r="F23">
+        <v>-0.00911844270594909</v>
+      </c>
+      <c r="G23">
+        <v>-0.03780716082827756</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.03166944934571619</v>
+        <v>0.03271926954827035</v>
       </c>
       <c r="C24">
-        <v>-0.05006143997745545</v>
+        <v>0.05285099964009702</v>
       </c>
       <c r="D24">
-        <v>0.01143551347539707</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02855404165542735</v>
+      </c>
+      <c r="E24">
+        <v>-0.0371759970899741</v>
+      </c>
+      <c r="F24">
+        <v>-0.07060418611336784</v>
+      </c>
+      <c r="G24">
+        <v>-0.009505816509667602</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.04518807501934138</v>
+        <v>0.04251709372917204</v>
       </c>
       <c r="C25">
-        <v>-0.0623932312143882</v>
+        <v>0.05737760667348241</v>
       </c>
       <c r="D25">
-        <v>0.003395606009972135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02757315046846224</v>
+      </c>
+      <c r="E25">
+        <v>-0.02913007511578935</v>
+      </c>
+      <c r="F25">
+        <v>-0.07379719941637024</v>
+      </c>
+      <c r="G25">
+        <v>-0.02710194262194646</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.0143264404334713</v>
+        <v>0.01403944598986973</v>
       </c>
       <c r="C26">
-        <v>-0.01925863187970426</v>
+        <v>0.01787483619721798</v>
       </c>
       <c r="D26">
-        <v>-0.0005347337193466884</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02434691215483034</v>
+      </c>
+      <c r="E26">
+        <v>-0.04560976984290288</v>
+      </c>
+      <c r="F26">
+        <v>-0.0634249459281967</v>
+      </c>
+      <c r="G26">
+        <v>0.01372217482924028</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1011468955762544</v>
+        <v>0.1404703841020407</v>
       </c>
       <c r="C28">
-        <v>0.2380573937425997</v>
+        <v>-0.24611883386411</v>
       </c>
       <c r="D28">
-        <v>-0.01489719211690137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.02691519708102492</v>
+      </c>
+      <c r="E28">
+        <v>-0.05980178418622813</v>
+      </c>
+      <c r="F28">
+        <v>-0.05367763526408237</v>
+      </c>
+      <c r="G28">
+        <v>-0.02178668511539031</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006044060447278105</v>
+        <v>0.00528022816871117</v>
       </c>
       <c r="C29">
-        <v>-0.03260375154219321</v>
+        <v>0.02966584030513004</v>
       </c>
       <c r="D29">
-        <v>-0.01486886755273948</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01967769314626281</v>
+      </c>
+      <c r="E29">
+        <v>-0.04523375053577428</v>
+      </c>
+      <c r="F29">
+        <v>-0.08220902566081922</v>
+      </c>
+      <c r="G29">
+        <v>-0.009089870881818533</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.04162638308671346</v>
+        <v>0.03871887117842823</v>
       </c>
       <c r="C30">
-        <v>-0.05388123066883049</v>
+        <v>0.05704947839335454</v>
       </c>
       <c r="D30">
-        <v>0.07145311121977094</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1015884611738098</v>
+      </c>
+      <c r="E30">
+        <v>-0.06869190869379442</v>
+      </c>
+      <c r="F30">
+        <v>-0.0778741282889272</v>
+      </c>
+      <c r="G30">
+        <v>0.01423178960845597</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05367611667634727</v>
+        <v>0.05513590858861757</v>
       </c>
       <c r="C31">
-        <v>-0.04637812605402486</v>
+        <v>0.06179216966786025</v>
       </c>
       <c r="D31">
-        <v>-0.02428572011784033</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006467182027688394</v>
+      </c>
+      <c r="E31">
+        <v>-0.06870895715772986</v>
+      </c>
+      <c r="F31">
+        <v>-0.06375702161200876</v>
+      </c>
+      <c r="G31">
+        <v>-0.04689659127369445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.00242709537666719</v>
+        <v>0.004811391680570871</v>
       </c>
       <c r="C32">
-        <v>-0.03921093965703305</v>
+        <v>0.03296970192308073</v>
       </c>
       <c r="D32">
-        <v>0.04840844689367305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.05764614994236172</v>
+      </c>
+      <c r="E32">
+        <v>-0.05202681751289575</v>
+      </c>
+      <c r="F32">
+        <v>-0.06322582314994596</v>
+      </c>
+      <c r="G32">
+        <v>0.01231312949637155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.02417282150109529</v>
+        <v>0.02244873182918505</v>
       </c>
       <c r="C33">
-        <v>-0.06114490242929377</v>
+        <v>0.05442832752019525</v>
       </c>
       <c r="D33">
-        <v>0.04971362319719972</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08100669173962703</v>
+      </c>
+      <c r="E33">
+        <v>-0.08238847992726368</v>
+      </c>
+      <c r="F33">
+        <v>-0.1090613421421931</v>
+      </c>
+      <c r="G33">
+        <v>-0.02046911305670333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04378114663008642</v>
+        <v>0.0402678766876156</v>
       </c>
       <c r="C34">
-        <v>-0.06596769850998734</v>
+        <v>0.06446752274812192</v>
       </c>
       <c r="D34">
-        <v>0.01822623095723857</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03841888946015438</v>
+      </c>
+      <c r="E34">
+        <v>-0.01056890851526892</v>
+      </c>
+      <c r="F34">
+        <v>-0.0768980637436235</v>
+      </c>
+      <c r="G34">
+        <v>-0.01272371795089362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01354497230297797</v>
+        <v>0.01317149883236562</v>
       </c>
       <c r="C36">
-        <v>-0.01599854430353727</v>
+        <v>0.01286563882103405</v>
       </c>
       <c r="D36">
-        <v>-0.0007710049115734309</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0268830552013602</v>
+      </c>
+      <c r="E36">
+        <v>-0.05489247691550198</v>
+      </c>
+      <c r="F36">
+        <v>-0.06836449373983823</v>
+      </c>
+      <c r="G36">
+        <v>-0.008836473140965518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.02783330011322505</v>
+        <v>0.02239946181157539</v>
       </c>
       <c r="C38">
-        <v>-0.02899731787383243</v>
+        <v>0.02241552010665872</v>
       </c>
       <c r="D38">
-        <v>-0.00900435799802205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0239249652771836</v>
+      </c>
+      <c r="E38">
+        <v>-0.04593557284773425</v>
+      </c>
+      <c r="F38">
+        <v>-0.05387414376716186</v>
+      </c>
+      <c r="G38">
+        <v>-0.002340004326372718</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.0413888148567002</v>
+        <v>0.03764475283262735</v>
       </c>
       <c r="C39">
-        <v>-0.06591905549160648</v>
+        <v>0.06437223357835863</v>
       </c>
       <c r="D39">
-        <v>0.02092655915631061</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05285379307374359</v>
+      </c>
+      <c r="E39">
+        <v>-0.04104558542304164</v>
+      </c>
+      <c r="F39">
+        <v>-0.08042983355060276</v>
+      </c>
+      <c r="G39">
+        <v>0.01236049083081723</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01127038577635909</v>
+        <v>0.01253890216500824</v>
       </c>
       <c r="C40">
-        <v>-0.05114122020352707</v>
+        <v>0.03741398240624542</v>
       </c>
       <c r="D40">
-        <v>0.01588797071542225</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03416538853921224</v>
+      </c>
+      <c r="E40">
+        <v>-0.08018668983448086</v>
+      </c>
+      <c r="F40">
+        <v>-0.06305254845518532</v>
+      </c>
+      <c r="G40">
+        <v>-0.03784332730925895</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01991476690843291</v>
+        <v>0.01856761073784772</v>
       </c>
       <c r="C41">
-        <v>-0.01222932681782333</v>
+        <v>0.01050288985093737</v>
       </c>
       <c r="D41">
-        <v>0.0009643608410736014</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01780345522302893</v>
+      </c>
+      <c r="E41">
+        <v>-0.05389173404798788</v>
+      </c>
+      <c r="F41">
+        <v>-0.05853737430986622</v>
+      </c>
+      <c r="G41">
+        <v>-0.002532063522377545</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.03615784256396441</v>
+        <v>0.02836265672026713</v>
       </c>
       <c r="C43">
-        <v>-0.03365222406894496</v>
+        <v>0.0251628435126333</v>
       </c>
       <c r="D43">
-        <v>0.02860200527940015</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04516000570372994</v>
+      </c>
+      <c r="E43">
+        <v>-0.06803970976086952</v>
+      </c>
+      <c r="F43">
+        <v>-0.06539999077507827</v>
+      </c>
+      <c r="G43">
+        <v>-0.02013427211041951</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.01018340259418902</v>
+        <v>0.01241094515097953</v>
       </c>
       <c r="C44">
-        <v>-0.0654018513805066</v>
+        <v>0.04894942140313675</v>
       </c>
       <c r="D44">
-        <v>0.01140201585194637</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.03865901548705365</v>
+      </c>
+      <c r="E44">
+        <v>-0.08538297984669398</v>
+      </c>
+      <c r="F44">
+        <v>-0.06702188628792936</v>
+      </c>
+      <c r="G44">
+        <v>0.008122630019433795</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.006134690097852009</v>
+        <v>0.007970447085423221</v>
       </c>
       <c r="C46">
-        <v>-0.02886606975765915</v>
+        <v>0.02925754756109764</v>
       </c>
       <c r="D46">
-        <v>-0.01612635647856295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01475736745499227</v>
+      </c>
+      <c r="E46">
+        <v>-0.05511395734562799</v>
+      </c>
+      <c r="F46">
+        <v>-0.09636348085358888</v>
+      </c>
+      <c r="G46">
+        <v>-0.002240175441261714</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.08058063736877355</v>
+        <v>0.08635407771040032</v>
       </c>
       <c r="C47">
-        <v>-0.07369710774284877</v>
+        <v>0.08303978242531744</v>
       </c>
       <c r="D47">
-        <v>-0.02470252047130729</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01295643619523595</v>
+      </c>
+      <c r="E47">
+        <v>-0.07142997182270369</v>
+      </c>
+      <c r="F47">
+        <v>-0.06928831491666555</v>
+      </c>
+      <c r="G47">
+        <v>-0.0517288940585927</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.01721405738038395</v>
+        <v>0.01548286468138579</v>
       </c>
       <c r="C48">
-        <v>-0.01580167890188189</v>
+        <v>0.01689092434646451</v>
       </c>
       <c r="D48">
-        <v>-0.01560259694309209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01548776734059308</v>
+      </c>
+      <c r="E48">
+        <v>-0.06624593215203854</v>
+      </c>
+      <c r="F48">
+        <v>-0.08544179228617295</v>
+      </c>
+      <c r="G48">
+        <v>-0.007910896646964611</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.078006551574387</v>
+        <v>0.06994281851941074</v>
       </c>
       <c r="C50">
-        <v>-0.08196417710184148</v>
+        <v>0.07605931962011996</v>
       </c>
       <c r="D50">
-        <v>-0.02475969658863675</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.0001013897924835947</v>
+      </c>
+      <c r="E50">
+        <v>-0.07544895541912981</v>
+      </c>
+      <c r="F50">
+        <v>-0.04848849324807434</v>
+      </c>
+      <c r="G50">
+        <v>-0.06892735575675378</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.01311680513862394</v>
+        <v>0.009630376725685934</v>
       </c>
       <c r="C51">
-        <v>-0.04998038473225445</v>
+        <v>0.03212011235413879</v>
       </c>
       <c r="D51">
-        <v>0.02820414250331444</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04868912110402873</v>
+      </c>
+      <c r="E51">
+        <v>-0.04385019200121921</v>
+      </c>
+      <c r="F51">
+        <v>-0.07095768815726841</v>
+      </c>
+      <c r="G51">
+        <v>0.02037322585211257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.07769859491048306</v>
+        <v>0.09194623624365209</v>
       </c>
       <c r="C53">
-        <v>-0.08012143816249805</v>
+        <v>0.08927917345494127</v>
       </c>
       <c r="D53">
-        <v>-0.03992630678828035</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03980136129436588</v>
+      </c>
+      <c r="E53">
+        <v>-0.06870804630525712</v>
+      </c>
+      <c r="F53">
+        <v>-0.07818141214935782</v>
+      </c>
+      <c r="G53">
+        <v>-0.06445072688804913</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.02945851958216822</v>
+        <v>0.02724293634546096</v>
       </c>
       <c r="C54">
-        <v>-0.03024301987759353</v>
+        <v>0.02847094152049531</v>
       </c>
       <c r="D54">
-        <v>0.00520271814550562</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03218437716900839</v>
+      </c>
+      <c r="E54">
+        <v>-0.05274866710781746</v>
+      </c>
+      <c r="F54">
+        <v>-0.09235655796519544</v>
+      </c>
+      <c r="G54">
+        <v>-0.01020077773453794</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.0723673600628903</v>
+        <v>0.08390024632309274</v>
       </c>
       <c r="C55">
-        <v>-0.06166763154145814</v>
+        <v>0.07278630340645614</v>
       </c>
       <c r="D55">
-        <v>-0.04884480693902918</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04716823674714322</v>
+      </c>
+      <c r="E55">
+        <v>-0.05171575548640622</v>
+      </c>
+      <c r="F55">
+        <v>-0.05436094251879416</v>
+      </c>
+      <c r="G55">
+        <v>-0.05298253661649405</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1413774495474222</v>
+        <v>0.1455548120469771</v>
       </c>
       <c r="C56">
-        <v>-0.1019240554194186</v>
+        <v>0.1112869762479405</v>
       </c>
       <c r="D56">
-        <v>-0.03802339542653097</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04257177846308767</v>
+      </c>
+      <c r="E56">
+        <v>-0.05296928561941443</v>
+      </c>
+      <c r="F56">
+        <v>-0.03973485515766405</v>
+      </c>
+      <c r="G56">
+        <v>-0.05933027285840421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.00169035435239906</v>
+        <v>-0.001126096611705302</v>
       </c>
       <c r="C57">
-        <v>0.01122523295566744</v>
+        <v>-0.006585206841684424</v>
       </c>
       <c r="D57">
-        <v>0.00270550887541429</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.001983713916871846</v>
+      </c>
+      <c r="E57">
+        <v>-0.002295409434769558</v>
+      </c>
+      <c r="F57">
+        <v>-0.005863466273885743</v>
+      </c>
+      <c r="G57">
+        <v>-0.002762847564934638</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04139612730344489</v>
+        <v>0.02519160392792231</v>
       </c>
       <c r="C58">
-        <v>-0.01512881330139558</v>
+        <v>0.0183183166591618</v>
       </c>
       <c r="D58">
-        <v>0.634512264107798</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3954909694508893</v>
+      </c>
+      <c r="E58">
+        <v>-0.6344799330649143</v>
+      </c>
+      <c r="F58">
+        <v>0.5804581233598887</v>
+      </c>
+      <c r="G58">
+        <v>0.102103922584803</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1379667532109709</v>
+        <v>0.1470116599645321</v>
       </c>
       <c r="C59">
-        <v>0.1931962017554254</v>
+        <v>-0.1844091009896973</v>
       </c>
       <c r="D59">
-        <v>0.01527976111647064</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02397216664509961</v>
+      </c>
+      <c r="E59">
+        <v>-0.0258950264607881</v>
+      </c>
+      <c r="F59">
+        <v>-0.01977830398984905</v>
+      </c>
+      <c r="G59">
+        <v>0.03147925190483216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.3077955759682896</v>
+        <v>0.2802450138679938</v>
       </c>
       <c r="C60">
-        <v>-0.1074377179616383</v>
+        <v>0.1029795539164912</v>
       </c>
       <c r="D60">
-        <v>0.1752896533116566</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2442606818775815</v>
+      </c>
+      <c r="E60">
+        <v>0.2634215141240419</v>
+      </c>
+      <c r="F60">
+        <v>0.0781047967498895</v>
+      </c>
+      <c r="G60">
+        <v>-0.04661179429219144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.03934903499757877</v>
+        <v>0.03898291245498495</v>
       </c>
       <c r="C61">
-        <v>-0.06339400049670359</v>
+        <v>0.06039971617544205</v>
       </c>
       <c r="D61">
-        <v>0.01643355355269702</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04474445620521646</v>
+      </c>
+      <c r="E61">
+        <v>-0.04539548605292198</v>
+      </c>
+      <c r="F61">
+        <v>-0.07113488429226662</v>
+      </c>
+      <c r="G61">
+        <v>-0.01263643813770178</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.01395472780218953</v>
+        <v>0.01396818328697333</v>
       </c>
       <c r="C63">
-        <v>-0.03357095962919526</v>
+        <v>0.03161130341160623</v>
       </c>
       <c r="D63">
-        <v>-0.01042305198418312</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0201239413596787</v>
+      </c>
+      <c r="E63">
+        <v>-0.05689448808161424</v>
+      </c>
+      <c r="F63">
+        <v>-0.0634597491752892</v>
+      </c>
+      <c r="G63">
+        <v>-0.0282796260376826</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.04699178246064363</v>
+        <v>0.05489596520736106</v>
       </c>
       <c r="C64">
-        <v>-0.04792614035307558</v>
+        <v>0.05712724990187246</v>
       </c>
       <c r="D64">
-        <v>0.007321528595181254</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01084786369763916</v>
+      </c>
+      <c r="E64">
+        <v>-0.03984826477209107</v>
+      </c>
+      <c r="F64">
+        <v>-0.08263857478065885</v>
+      </c>
+      <c r="G64">
+        <v>-0.01208638025243091</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.08414879995208391</v>
+        <v>0.06773944328549079</v>
       </c>
       <c r="C65">
-        <v>-0.03324157057784129</v>
+        <v>0.03093304501650703</v>
       </c>
       <c r="D65">
-        <v>0.05052712384473032</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08351251656790286</v>
+      </c>
+      <c r="E65">
+        <v>-0.0427199733760723</v>
+      </c>
+      <c r="F65">
+        <v>0.0003810785493639159</v>
+      </c>
+      <c r="G65">
+        <v>-0.001324816887721048</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0572887710228735</v>
+        <v>0.04922455192849925</v>
       </c>
       <c r="C66">
-        <v>-0.09207858538240936</v>
+        <v>0.08351424712035375</v>
       </c>
       <c r="D66">
-        <v>0.04326121338133419</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07814590827346531</v>
+      </c>
+      <c r="E66">
+        <v>-0.04781936172006844</v>
+      </c>
+      <c r="F66">
+        <v>-0.08256657264810753</v>
+      </c>
+      <c r="G66">
+        <v>-0.004202866696034233</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.05003376223879306</v>
+        <v>0.04439401229824189</v>
       </c>
       <c r="C67">
-        <v>-0.03152045014043871</v>
+        <v>0.02801619395957779</v>
       </c>
       <c r="D67">
-        <v>-0.01193949919957308</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.009860176589270129</v>
+      </c>
+      <c r="E67">
+        <v>-0.02425729223691327</v>
+      </c>
+      <c r="F67">
+        <v>-0.04530018511404147</v>
+      </c>
+      <c r="G67">
+        <v>-0.009461709274687898</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1376333575604793</v>
+        <v>0.1562891863769692</v>
       </c>
       <c r="C68">
-        <v>0.2779311676129443</v>
+        <v>-0.2440621388200807</v>
       </c>
       <c r="D68">
-        <v>-0.02043902067099227</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02104342980890361</v>
+      </c>
+      <c r="E68">
+        <v>-0.04209473769078213</v>
+      </c>
+      <c r="F68">
+        <v>-0.01249194225109404</v>
+      </c>
+      <c r="G68">
+        <v>-0.009502445032632411</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.08740275644432112</v>
+        <v>0.08563659015953964</v>
       </c>
       <c r="C69">
-        <v>-0.07308223617688531</v>
+        <v>0.09019183450982887</v>
       </c>
       <c r="D69">
-        <v>-0.03360018517798585</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.004206789344763924</v>
+      </c>
+      <c r="E69">
+        <v>-0.05583407985172591</v>
+      </c>
+      <c r="F69">
+        <v>-0.08746040911746548</v>
+      </c>
+      <c r="G69">
+        <v>-0.03050638873828657</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1244628096597089</v>
+        <v>0.1467598263322604</v>
       </c>
       <c r="C71">
-        <v>0.2465144514267624</v>
+        <v>-0.2342247170241799</v>
       </c>
       <c r="D71">
-        <v>0.01270368255851916</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.004346428619435047</v>
+      </c>
+      <c r="E71">
+        <v>-0.06559484220017442</v>
+      </c>
+      <c r="F71">
+        <v>-0.04828087391398062</v>
+      </c>
+      <c r="G71">
+        <v>-0.03883686058552357</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.08846765001102266</v>
+        <v>0.09791780297775313</v>
       </c>
       <c r="C72">
-        <v>-0.05847376544378801</v>
+        <v>0.05888741960610851</v>
       </c>
       <c r="D72">
-        <v>0.01199855184598226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.03366227837133202</v>
+      </c>
+      <c r="E72">
+        <v>-0.02508465356119426</v>
+      </c>
+      <c r="F72">
+        <v>-0.06609695505605341</v>
+      </c>
+      <c r="G72">
+        <v>-0.0348838644285845</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.4044893062631026</v>
+        <v>0.3434116892511501</v>
       </c>
       <c r="C73">
-        <v>-0.05753982086428137</v>
+        <v>0.06934914167820368</v>
       </c>
       <c r="D73">
-        <v>0.4044676323776759</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4843655876760341</v>
+      </c>
+      <c r="E73">
+        <v>0.4696828888876916</v>
+      </c>
+      <c r="F73">
+        <v>0.220179393146045</v>
+      </c>
+      <c r="G73">
+        <v>-0.1063307400760763</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.1020631529532717</v>
+        <v>0.1078935380428504</v>
       </c>
       <c r="C74">
-        <v>-0.09865316233925028</v>
+        <v>0.09848303984677108</v>
       </c>
       <c r="D74">
-        <v>-0.02098073085379474</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03031213335860634</v>
+      </c>
+      <c r="E74">
+        <v>-0.06865291648428834</v>
+      </c>
+      <c r="F74">
+        <v>-0.0383215033262027</v>
+      </c>
+      <c r="G74">
+        <v>-0.07230683334158597</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.2500342230463549</v>
+        <v>0.2553966413183599</v>
       </c>
       <c r="C75">
-        <v>-0.1132392470649505</v>
+        <v>0.1367084260812964</v>
       </c>
       <c r="D75">
-        <v>-0.09108912513594236</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.124689263342166</v>
+      </c>
+      <c r="E75">
+        <v>-0.06382944635640735</v>
+      </c>
+      <c r="F75">
+        <v>-0.01770271005577254</v>
+      </c>
+      <c r="G75">
+        <v>-0.07804439946904258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1084905225310806</v>
+        <v>0.1243512278880357</v>
       </c>
       <c r="C76">
-        <v>-0.09166306741437766</v>
+        <v>0.1008408396825529</v>
       </c>
       <c r="D76">
-        <v>-0.05308314188022362</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05967516900490145</v>
+      </c>
+      <c r="E76">
+        <v>-0.07945491427906459</v>
+      </c>
+      <c r="F76">
+        <v>-0.0602970796390096</v>
+      </c>
+      <c r="G76">
+        <v>-0.05774095424727875</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07381057157107326</v>
+        <v>0.05859283771089217</v>
       </c>
       <c r="C77">
-        <v>-0.060244360296586</v>
+        <v>0.07097788979207895</v>
       </c>
       <c r="D77">
-        <v>0.0506416184693915</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06256464316041882</v>
+      </c>
+      <c r="E77">
+        <v>-0.09493333561713917</v>
+      </c>
+      <c r="F77">
+        <v>-0.1088099012227869</v>
+      </c>
+      <c r="G77">
+        <v>0.1439694794824163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.04490131201671602</v>
+        <v>0.04230758308651485</v>
       </c>
       <c r="C78">
-        <v>-0.05083106081090751</v>
+        <v>0.05753942347777025</v>
       </c>
       <c r="D78">
-        <v>0.02699844102139164</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06422730638992762</v>
+      </c>
+      <c r="E78">
+        <v>-0.05285458509673034</v>
+      </c>
+      <c r="F78">
+        <v>-0.08385942720978998</v>
+      </c>
+      <c r="G78">
+        <v>-0.007812598390936542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02776577986609508</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0451560392489883</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05944433370734223</v>
+      </c>
+      <c r="E79">
+        <v>-0.06727471720191602</v>
+      </c>
+      <c r="F79">
+        <v>-0.03063043700235467</v>
+      </c>
+      <c r="G79">
+        <v>-0.07967999160983374</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03967367399322753</v>
+        <v>0.03077913620876217</v>
       </c>
       <c r="C80">
-        <v>-0.05127302384647908</v>
+        <v>0.05110363266876386</v>
       </c>
       <c r="D80">
-        <v>0.02548103794634573</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03858385429758567</v>
+      </c>
+      <c r="E80">
+        <v>-0.01524430942127079</v>
+      </c>
+      <c r="F80">
+        <v>-0.03206766502881311</v>
+      </c>
+      <c r="G80">
+        <v>0.04473173513501926</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1387135419979384</v>
+        <v>0.1386875840757744</v>
       </c>
       <c r="C81">
-        <v>-0.08283465721940456</v>
+        <v>0.09793409874998456</v>
       </c>
       <c r="D81">
-        <v>-0.07728899246782374</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.102482568679742</v>
+      </c>
+      <c r="E81">
+        <v>-0.0816019655057154</v>
+      </c>
+      <c r="F81">
+        <v>-0.005649195730933947</v>
+      </c>
+      <c r="G81">
+        <v>-0.05271341755694386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1651281485662233</v>
+        <v>0.2052013188159313</v>
       </c>
       <c r="C82">
-        <v>-0.09392246317163977</v>
+        <v>0.1563213991278072</v>
       </c>
       <c r="D82">
-        <v>-0.1444861471136548</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2154711509901442</v>
+      </c>
+      <c r="E82">
+        <v>-0.01091113599320696</v>
+      </c>
+      <c r="F82">
+        <v>-0.1087110811431908</v>
+      </c>
+      <c r="G82">
+        <v>-0.05315344244802898</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.03761683308601434</v>
+        <v>0.02601301541545385</v>
       </c>
       <c r="C83">
-        <v>-0.03013797222832062</v>
+        <v>0.04231544496697297</v>
       </c>
       <c r="D83">
-        <v>0.03461772849443826</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03305620473954149</v>
+      </c>
+      <c r="E83">
+        <v>-0.02290921803196197</v>
+      </c>
+      <c r="F83">
+        <v>-0.04173038010766396</v>
+      </c>
+      <c r="G83">
+        <v>0.0211266358516074</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0001871389561642948</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.0008366473054363927</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.001050907990105732</v>
+      </c>
+      <c r="E84">
+        <v>-0.0007400224910404392</v>
+      </c>
+      <c r="F84">
+        <v>-0.0008445327731724924</v>
+      </c>
+      <c r="G84">
+        <v>0.0003017276293272073</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.2160068659314725</v>
+        <v>0.200708645041089</v>
       </c>
       <c r="C85">
-        <v>-0.1111384038539175</v>
+        <v>0.1207610035540103</v>
       </c>
       <c r="D85">
-        <v>-0.1186824894371985</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09700129672970922</v>
+      </c>
+      <c r="E85">
+        <v>0.005764545549992544</v>
+      </c>
+      <c r="F85">
+        <v>0.009835115532931671</v>
+      </c>
+      <c r="G85">
+        <v>-0.1364539284112148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005742263788491458</v>
+        <v>0.008487134919427434</v>
       </c>
       <c r="C86">
-        <v>-0.03099690410018451</v>
+        <v>0.02250959276292454</v>
       </c>
       <c r="D86">
-        <v>0.03139218425650835</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05499969141458849</v>
+      </c>
+      <c r="E86">
+        <v>-0.0677443210718149</v>
+      </c>
+      <c r="F86">
+        <v>-0.1233159660192066</v>
+      </c>
+      <c r="G86">
+        <v>0.00924655801722782</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.02201615726527677</v>
+        <v>0.02148403316969495</v>
       </c>
       <c r="C87">
-        <v>-0.005889025458944573</v>
+        <v>0.01490893101871322</v>
       </c>
       <c r="D87">
-        <v>0.08204659900433044</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.08538122924684448</v>
+      </c>
+      <c r="E87">
+        <v>-0.1188911707621379</v>
+      </c>
+      <c r="F87">
+        <v>-0.06116450362200115</v>
+      </c>
+      <c r="G87">
+        <v>0.04422600915265979</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.103057650550308</v>
+        <v>0.09129532300737245</v>
       </c>
       <c r="C88">
-        <v>-0.07337251120864259</v>
+        <v>0.06364013087170529</v>
       </c>
       <c r="D88">
-        <v>-0.02309122568835778</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.006699833998839176</v>
+      </c>
+      <c r="E88">
+        <v>-0.04706056771831495</v>
+      </c>
+      <c r="F88">
+        <v>-0.06657704563536601</v>
+      </c>
+      <c r="G88">
+        <v>0.02274734293866512</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1974577088815387</v>
+        <v>0.2270755857223415</v>
       </c>
       <c r="C89">
-        <v>0.3727367889914325</v>
+        <v>-0.3771012589022917</v>
       </c>
       <c r="D89">
-        <v>-0.03605684602477475</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02296534078285574</v>
+      </c>
+      <c r="E89">
+        <v>-0.06581262127612608</v>
+      </c>
+      <c r="F89">
+        <v>-0.07604856240466067</v>
+      </c>
+      <c r="G89">
+        <v>0.06390095395753284</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1872748389650263</v>
+        <v>0.2046809690856209</v>
       </c>
       <c r="C90">
-        <v>0.3300940016487218</v>
+        <v>-0.3089430623940421</v>
       </c>
       <c r="D90">
-        <v>-0.03666395622940628</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.02470725296824738</v>
+      </c>
+      <c r="E90">
+        <v>-0.07200074667354917</v>
+      </c>
+      <c r="F90">
+        <v>-0.03488821387630028</v>
+      </c>
+      <c r="G90">
+        <v>0.0147670056356135</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1858422939916771</v>
+        <v>0.1841129042732911</v>
       </c>
       <c r="C91">
-        <v>-0.1327049219850856</v>
+        <v>0.1469029542122842</v>
       </c>
       <c r="D91">
-        <v>-0.08752641227302484</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.10265762400774</v>
+      </c>
+      <c r="E91">
+        <v>-0.06310224674501029</v>
+      </c>
+      <c r="F91">
+        <v>-0.03156120991026152</v>
+      </c>
+      <c r="G91">
+        <v>-0.06005742311505891</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1710653766772495</v>
+        <v>0.185138685428803</v>
       </c>
       <c r="C92">
-        <v>0.2771043191886395</v>
+        <v>-0.2836929360473865</v>
       </c>
       <c r="D92">
-        <v>-0.01647402628463765</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01982270322540665</v>
+      </c>
+      <c r="E92">
+        <v>-0.07296938624080178</v>
+      </c>
+      <c r="F92">
+        <v>-0.08151860079180925</v>
+      </c>
+      <c r="G92">
+        <v>0.008402169556665994</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2102605618140488</v>
+        <v>0.2278088701090287</v>
       </c>
       <c r="C93">
-        <v>0.3316257763697206</v>
+        <v>-0.3150069918450789</v>
       </c>
       <c r="D93">
-        <v>-0.0349189786987616</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.01797848255360877</v>
+      </c>
+      <c r="E93">
+        <v>-0.04593380056558847</v>
+      </c>
+      <c r="F93">
+        <v>-0.03475036960633474</v>
+      </c>
+      <c r="G93">
+        <v>-0.02911759489493278</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.3445534828893917</v>
+        <v>0.3454424538498973</v>
       </c>
       <c r="C94">
-        <v>-0.176526900233085</v>
+        <v>0.201684637754279</v>
       </c>
       <c r="D94">
-        <v>-0.4808082463164048</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4995585444775543</v>
+      </c>
+      <c r="E94">
+        <v>0.003452540356096614</v>
+      </c>
+      <c r="F94">
+        <v>0.4484225734885914</v>
+      </c>
+      <c r="G94">
+        <v>0.3450993574877906</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1091283262463908</v>
+        <v>0.08187450901401234</v>
       </c>
       <c r="C95">
-        <v>-0.07458682537458895</v>
+        <v>0.06392905259513616</v>
       </c>
       <c r="D95">
-        <v>0.1405221041902391</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1706182985169629</v>
+      </c>
+      <c r="E95">
+        <v>0.1062603284279738</v>
+      </c>
+      <c r="F95">
+        <v>-0.2589803505444074</v>
+      </c>
+      <c r="G95">
+        <v>0.8522085936266893</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1928414873072128</v>
+        <v>0.1856833796738571</v>
       </c>
       <c r="C98">
-        <v>-0.02050081166693966</v>
+        <v>0.04076279544592535</v>
       </c>
       <c r="D98">
-        <v>0.1528424588312823</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1943470396745269</v>
+      </c>
+      <c r="E98">
+        <v>0.1428688888875823</v>
+      </c>
+      <c r="F98">
+        <v>0.03009701277864511</v>
+      </c>
+      <c r="G98">
+        <v>-0.0947626834219734</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.006002204233843051</v>
+        <v>0.005340475748955521</v>
       </c>
       <c r="C101">
-        <v>-0.032607865927356</v>
+        <v>0.02939829259392979</v>
       </c>
       <c r="D101">
-        <v>-0.01556044517702868</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01907693455625816</v>
+      </c>
+      <c r="E101">
+        <v>-0.04583686346646232</v>
+      </c>
+      <c r="F101">
+        <v>-0.08186858857753794</v>
+      </c>
+      <c r="G101">
+        <v>-0.007974494198555095</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.1207059449481278</v>
+        <v>0.1234698679318605</v>
       </c>
       <c r="C102">
-        <v>-0.07753546975263728</v>
+        <v>0.1032078981918901</v>
       </c>
       <c r="D102">
-        <v>-0.02459366890727076</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04093751497556478</v>
+      </c>
+      <c r="E102">
+        <v>-5.519106007228132e-05</v>
+      </c>
+      <c r="F102">
+        <v>-0.04799956098160403</v>
+      </c>
+      <c r="G102">
+        <v>-0.01840820989068222</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
